--- a/Маржа по рынкам.xlsx
+++ b/Маржа по рынкам.xlsx
@@ -5,15 +5,98 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\ASU\Общие документы АСУП\ERP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\basic-js-ds\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14220"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Максимум по рынкам" sheetId="1" r:id="rId1"/>
+    <sheet name="Решатель" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Максимум по рынкам'!$K$6:$K$8,'Максимум по рынкам'!$O$6:$O$8</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Максимум по рынкам'!$K$6</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">'Максимум по рынкам'!$O$7</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">'Максимум по рынкам'!$O$8</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">'Максимум по рынкам'!$O$8</definedName>
+    <definedName name="solver_lhs13" localSheetId="0" hidden="1">'Максимум по рынкам'!$Q$6</definedName>
+    <definedName name="solver_lhs14" localSheetId="0" hidden="1">'Максимум по рынкам'!$Q$7</definedName>
+    <definedName name="solver_lhs15" localSheetId="0" hidden="1">'Максимум по рынкам'!$Q$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Максимум по рынкам'!$K$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Максимум по рынкам'!$K$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Максимум по рынкам'!$K$7</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Максимум по рынкам'!$K$8</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Максимум по рынкам'!$K$8</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Максимум по рынкам'!$O$6</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">'Максимум по рынкам'!$O$6</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">'Максимум по рынкам'!$O$7</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">15</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Максимум по рынкам'!$P$10</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Решатель!$A$1</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel11" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel13" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel14" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel15" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Максимум по рынкам'!$I$6</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">'Максимум по рынкам'!$M$7</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">'Максимум по рынкам'!$N$8</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">'Максимум по рынкам'!$M$8</definedName>
+    <definedName name="solver_rhs13" localSheetId="0" hidden="1">'Максимум по рынкам'!$F$6</definedName>
+    <definedName name="solver_rhs14" localSheetId="0" hidden="1">'Максимум по рынкам'!$F$7</definedName>
+    <definedName name="solver_rhs15" localSheetId="0" hidden="1">'Максимум по рынкам'!$F$8</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Максимум по рынкам'!$J$6</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Максимум по рынкам'!$J$7</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Максимум по рынкам'!$I$7</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Максимум по рынкам'!$J$8</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Максимум по рынкам'!$I$8</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Максимум по рынкам'!$N$6</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">'Максимум по рынкам'!$M$6</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">'Максимум по рынкам'!$N$7</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Цена 1</t>
   </si>
@@ -32,12 +115,6 @@
     <t>Цена 2</t>
   </si>
   <si>
-    <t>Продукт 1</t>
-  </si>
-  <si>
-    <t>Продукт 2</t>
-  </si>
-  <si>
     <t>Производство</t>
   </si>
   <si>
@@ -47,23 +124,77 @@
     <t>макс</t>
   </si>
   <si>
-    <t>Себестоимость</t>
-  </si>
-  <si>
-    <t>Маржа</t>
-  </si>
-  <si>
     <t>Объем рынка 1</t>
   </si>
   <si>
     <t>Объем рынка 2</t>
+  </si>
+  <si>
+    <t>план</t>
+  </si>
+  <si>
+    <t>ручной ввод</t>
+  </si>
+  <si>
+    <t>целевая ячейка</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Макс. прибыль, ед.</t>
+  </si>
+  <si>
+    <t>расчет по формулам</t>
+  </si>
+  <si>
+    <t>параметры для подбора решателем</t>
+  </si>
+  <si>
+    <t>Себест.</t>
+  </si>
+  <si>
+    <t>Пропилен</t>
+  </si>
+  <si>
+    <t>Полиэтилен</t>
+  </si>
+  <si>
+    <t>НАК</t>
+  </si>
+  <si>
+    <t>Волокно</t>
+  </si>
+  <si>
+    <t>Полиэтилен/пропилен:</t>
+  </si>
+  <si>
+    <t>Пропилен/НАК:</t>
+  </si>
+  <si>
+    <t>НАК/волокно:</t>
+  </si>
+  <si>
+    <t>Подбор для зависимых продуктов</t>
+  </si>
+  <si>
+    <t>Подбор для пропилена</t>
+  </si>
+  <si>
+    <t>Не реализовано</t>
+  </si>
+  <si>
+    <t>План продаж</t>
+  </si>
+  <si>
+    <t>Объем рынков</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,16 +202,135 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -88,12 +338,195 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -109,6 +542,503 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="5162550"/>
+          <a:ext cx="1828800" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>Пропилен</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="4429125"/>
+          <a:ext cx="1828800" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>Пропилен</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>(товар)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольник 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="6048375"/>
+          <a:ext cx="1828800" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>НАК</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Соединительная линия уступом 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6184107" y="3117057"/>
+          <a:ext cx="433387" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Соединительная линия уступом 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4736306" y="5598319"/>
+          <a:ext cx="585788" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Прямоугольник 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="5448300"/>
+          <a:ext cx="1828800" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>НАК (товар)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Прямоугольник 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="6648450"/>
+          <a:ext cx="1828800" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>Волокно</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Соединительная линия уступом 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="39" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7165182" y="4983957"/>
+          <a:ext cx="300037" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Соединительная линия уступом 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7165181" y="5884069"/>
+          <a:ext cx="300038" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,103 +1304,743 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:S119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="12" style="2"/>
+    <col min="2" max="2" width="9.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2"/>
+    <col min="9" max="9" width="8.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="7.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12" style="2"/>
+    <col min="17" max="17" width="11.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.75" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1050</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="28">
+        <v>600</v>
+      </c>
+      <c r="F5" s="29">
+        <f>K5+O5</f>
+        <v>600</v>
+      </c>
+      <c r="G5" s="30">
+        <v>800</v>
+      </c>
+      <c r="H5" s="29">
+        <f>MAX(B5-G5,C5-G5)</f>
+        <v>250</v>
+      </c>
+      <c r="I5" s="31">
+        <v>0</v>
+      </c>
+      <c r="J5" s="32">
+        <v>600</v>
+      </c>
+      <c r="K5" s="33">
+        <v>600</v>
+      </c>
+      <c r="L5" s="29">
+        <f>K5*(B5-G5)</f>
+        <v>150000</v>
+      </c>
+      <c r="M5" s="31">
+        <v>0</v>
+      </c>
+      <c r="N5" s="32">
+        <v>500</v>
+      </c>
+      <c r="O5" s="33">
+        <v>0</v>
+      </c>
+      <c r="P5" s="29">
+        <f>O5*(C5-G5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="40">
+        <f>O5+K5</f>
+        <v>600</v>
+      </c>
+      <c r="R5" s="40">
+        <f>J5+N5</f>
+        <v>1100</v>
+      </c>
+      <c r="S5" s="42">
+        <f>F5-K5-O5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="26">
+        <v>650</v>
+      </c>
+      <c r="C6" s="26">
+        <v>600</v>
+      </c>
+      <c r="D6" s="44">
+        <f>D5*C10</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="45">
+        <f>E5*C10</f>
+        <v>360</v>
+      </c>
+      <c r="F6" s="36">
+        <f>F5*C10</f>
+        <v>360</v>
+      </c>
+      <c r="G6" s="30">
+        <v>590</v>
+      </c>
+      <c r="H6" s="29">
+        <f t="shared" ref="H6:H8" si="0">MAX(B6-G6,C6-G6)</f>
+        <v>60</v>
+      </c>
+      <c r="I6" s="31">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <v>300</v>
+      </c>
+      <c r="K6" s="33">
+        <v>300</v>
+      </c>
+      <c r="L6" s="29">
+        <f>K6*(B6-G6)</f>
+        <v>18000</v>
+      </c>
+      <c r="M6" s="31">
+        <v>0</v>
+      </c>
+      <c r="N6" s="32">
+        <v>100</v>
+      </c>
+      <c r="O6" s="33">
+        <v>60</v>
+      </c>
+      <c r="P6" s="29">
+        <f>O6*(C6-G6)</f>
+        <v>600</v>
+      </c>
+      <c r="Q6" s="40">
+        <f>O6+K6</f>
+        <v>360</v>
+      </c>
+      <c r="R6" s="40">
+        <f>J6+N6</f>
+        <v>400</v>
+      </c>
+      <c r="S6" s="42">
+        <f>F6-K6-O6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="26">
+        <v>950</v>
+      </c>
+      <c r="D7" s="44">
+        <v>0</v>
+      </c>
+      <c r="E7" s="45">
+        <v>200</v>
+      </c>
+      <c r="F7" s="36">
+        <f>F6*C11</f>
+        <v>180</v>
+      </c>
+      <c r="G7" s="30">
+        <v>900</v>
+      </c>
+      <c r="H7" s="29">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="31">
+        <v>0</v>
+      </c>
+      <c r="J7" s="32">
+        <v>100</v>
+      </c>
+      <c r="K7" s="33">
+        <v>100</v>
+      </c>
+      <c r="L7" s="29">
+        <f>K7*(B7-G7)</f>
+        <v>10000</v>
+      </c>
+      <c r="M7" s="31">
+        <v>0</v>
+      </c>
+      <c r="N7" s="32">
+        <v>100</v>
+      </c>
+      <c r="O7" s="33">
+        <v>80</v>
+      </c>
+      <c r="P7" s="29">
+        <f>O7*(C7-G7)</f>
+        <v>4000</v>
+      </c>
+      <c r="Q7" s="40">
+        <f>O7+K7</f>
+        <v>180</v>
+      </c>
+      <c r="R7" s="40">
+        <f>J7+N7</f>
+        <v>200</v>
+      </c>
+      <c r="S7" s="42">
+        <f t="shared" ref="S7:S8" si="1">F7-K7-O7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="26">
+        <v>1100</v>
+      </c>
+      <c r="C8" s="26">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0</v>
+      </c>
+      <c r="E8" s="45">
+        <v>150</v>
+      </c>
+      <c r="F8" s="36">
+        <f>F7*C12</f>
+        <v>72</v>
+      </c>
+      <c r="G8" s="30">
+        <v>1120</v>
+      </c>
+      <c r="H8" s="29">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="I8" s="31">
+        <v>0</v>
+      </c>
+      <c r="J8" s="32">
+        <v>150</v>
+      </c>
+      <c r="K8" s="33">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29">
+        <f>K8*(B8-G8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="31">
+        <v>50</v>
+      </c>
+      <c r="N8" s="32">
+        <v>100</v>
+      </c>
+      <c r="O8" s="33">
+        <v>50</v>
+      </c>
+      <c r="P8" s="29">
+        <f>O8*(C8-G8)</f>
+        <v>-6000</v>
+      </c>
+      <c r="Q8" s="41">
+        <f>O8+K8</f>
+        <v>50</v>
+      </c>
+      <c r="R8" s="41">
+        <f>J8+N8</f>
+        <v>250</v>
+      </c>
+      <c r="S8" s="43">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.6</v>
+      </c>
+      <c r="P10" s="17">
+        <f>SUM(L5:L8,P5:P8)</f>
+        <v>176600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>99</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>99</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>999</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>999</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="37">
+        <v>999</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="35"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="34"/>
+    </row>
+    <row r="38" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="39" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="40" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="41" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="42" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="43" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="45" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="46" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="48" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="59" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="60" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="61" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="62" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="4:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="4:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="4:7" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D101" s="2" t="e">
+        <f ca="1">_xludf.MAX($P$10)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G101" s="2" t="e">
+        <f ca="1">_xludf.MAX($P$10)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D102" s="2">
+        <f>COUNT($O$5,$K$5)</f>
+        <v>2</v>
+      </c>
+      <c r="G102" s="2">
+        <f>COUNT($K$6:$K$8,$O$6:$O$8)</f>
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1050</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D103" s="2" t="b">
+        <f>$F$5&lt;=$E$5</f>
+        <v>1</v>
+      </c>
+      <c r="G103" s="2" t="b">
+        <f>$K$6&lt;=$J$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D104" s="2" t="b">
+        <f>$F$5&gt;=$D$5</f>
+        <v>1</v>
+      </c>
+      <c r="G104" s="2" t="b">
+        <f>$K$6&gt;=$I$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D105" s="2" t="b">
+        <f>$K$5&lt;=$J$5</f>
+        <v>1</v>
+      </c>
+      <c r="G105" s="2" t="b">
+        <f>$K$7&lt;=$J$7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D106" s="2" t="b">
+        <f>$K$5&gt;=$I$5</f>
+        <v>1</v>
+      </c>
+      <c r="G106" s="2" t="b">
+        <f>$K$7&gt;=$I$7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D107" s="2" t="b">
+        <f>$O$5&lt;=$N$5</f>
+        <v>1</v>
+      </c>
+      <c r="G107" s="2" t="b">
+        <f>$K$8&lt;=$J$8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D108" s="2" t="b">
+        <f>$O$5&gt;=$M$5</f>
+        <v>1</v>
+      </c>
+      <c r="G108" s="2" t="b">
+        <f>$K$8&gt;=$I$8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D109" s="2">
+        <f>{32767;32767;0.000001;0.01;FALSE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
+      </c>
+      <c r="G109" s="2" t="b">
+        <f>$O$6&lt;=$N$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D110" s="2">
+        <f>{0;0;1;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>600</v>
-      </c>
-      <c r="F4">
-        <v>800</v>
-      </c>
-      <c r="G4">
-        <f>MAX(B4-F4,C4-F4)</f>
-        <v>250</v>
-      </c>
-      <c r="I4">
+      <c r="G110" s="2" t="b">
+        <f>$O$6&gt;=$M$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G111" s="2" t="b">
+        <f>$O$7&lt;=$N$7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="2" t="b">
+        <f>$O$7&gt;=$M$7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="2" t="b">
+        <f>$O$8&lt;=$N$8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="2" t="b">
+        <f>$O$8&gt;=$M$8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="2" t="b">
+        <f>$Q$6&lt;=$F$6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="2" t="b">
+        <f>$Q$7&lt;=$F$7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="2" t="b">
+        <f>$Q$8&lt;=$F$8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="2">
+        <f>{32767;32767;0.000001;0.01;TRUE;FALSE;TRUE;1;1;1;0.0001;TRUE}</f>
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G119" s="2">
+        <f>{0;0;2;100;0;FALSE;TRUE;0.075;0;0;FALSE;30}</f>
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>500</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>